--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_1_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_1_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1329676.160143633</v>
+        <v>-1132127.034771728</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631045</v>
+        <v>12232730.83239525</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.3664809157</v>
+        <v>393801.3664809167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11030320.01604648</v>
+        <v>11050209.84614943</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>316.9029636594748</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>28.11631013281968</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28.11631013281968</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>24.76484596498756</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>48.78043114029438</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>24.76484596498756</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>28.11631013281968</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>292.908220654345</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>292.908220654345</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>42.81009494879388</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>190.5712016825828</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>292.908220654345</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>37.79816496619935</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
         <v>92.70937201392488</v>
@@ -1026,10 +1026,10 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -1038,7 +1038,7 @@
         <v>194.556163395115</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
         <v>138.2959597602405</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>234.8221821978992</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>89.61713704074984</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1145,13 +1145,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>176.0500394884458</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>68.60526130391781</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1196,10 +1196,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>101.5793816732657</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>241.8865310850158</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1357,7 +1357,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>30.78532107306648</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162746</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>71.91843975231755</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1368198100104</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316325</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573506</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>110.024558178628</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>9.363822405892238</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396397</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162746</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316325</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573506</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>40.84698832683173</v>
       </c>
       <c r="V16" t="n">
-        <v>217.485048739386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>125.1813031257409</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162746</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>37.36157859846168</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573506</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9019767036276</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459096</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>115.2054206657807</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316325</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>191.8186747056957</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162746</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459096</v>
+        <v>98.26334559068147</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316325</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>191.5169749534291</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686437</v>
+        <v>96.44420510686466</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2843,7 +2843,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458141</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2962,7 +2962,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>116.2748171257531</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686437</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523054</v>
+        <v>152.5897076523053</v>
       </c>
       <c r="C34" t="n">
         <v>134.5782361172335</v>
@@ -3193,7 +3193,7 @@
         <v>126.0090037718574</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160354</v>
+        <v>128.8715224160353</v>
       </c>
       <c r="F34" t="n">
         <v>134.4685551105455</v>
@@ -3205,7 +3205,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705893</v>
       </c>
       <c r="S34" t="n">
         <v>132.7590956334168</v>
@@ -3275,16 +3275,16 @@
         <v>386.0425690809814</v>
       </c>
       <c r="F35" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>356.7528348300169</v>
       </c>
       <c r="X35" t="n">
-        <v>371.9281974712906</v>
+        <v>378.5348099940037</v>
       </c>
       <c r="Y35" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448704</v>
+        <v>63.09628120448735</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>935.7060176096741</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>912.8456916633783</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>893.5934748887826</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>467.6165350366401</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>446.5327572664444</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>42.193694855893</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>42.193694855893</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625574</v>
+        <v>42.193694855893</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625574</v>
+        <v>404.7971536727885</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625574</v>
+        <v>404.7971536727885</v>
       </c>
       <c r="L2" t="n">
-        <v>30.08445184211706</v>
+        <v>404.7971536727885</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>404.7971536727885</v>
       </c>
       <c r="N2" t="n">
-        <v>57.91959887360855</v>
+        <v>491.7489807252127</v>
       </c>
       <c r="O2" t="n">
-        <v>57.91959887360855</v>
+        <v>1013.895954566889</v>
       </c>
       <c r="P2" t="n">
-        <v>57.91959887360855</v>
+        <v>1536.042928408564</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.75474590510004</v>
+        <v>1992.128407912747</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2109.68474279465</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2109.68474279465</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1888.759171839283</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1630.404262435696</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1272.914847561945</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1272.914847561945</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>952.8108438655057</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>951.5139778608001</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.6496180761</v>
+        <v>609.3171858873483</v>
       </c>
       <c r="C3" t="n">
-        <v>30.6496180761</v>
+        <v>491.811282404853</v>
       </c>
       <c r="D3" t="n">
-        <v>30.6496180761</v>
+        <v>387.971323920138</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6496180761</v>
+        <v>283.2693901930753</v>
       </c>
       <c r="F3" t="n">
-        <v>30.6496180761</v>
+        <v>189.6235598759794</v>
       </c>
       <c r="G3" t="n">
-        <v>30.6496180761</v>
+        <v>95.56978809358341</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>42.193694855893</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>49.64033781780484</v>
       </c>
       <c r="J3" t="n">
-        <v>37.5310948040289</v>
+        <v>321.3378270973959</v>
       </c>
       <c r="K3" t="n">
-        <v>37.5310948040289</v>
+        <v>782.5695646472445</v>
       </c>
       <c r="L3" t="n">
-        <v>65.36624183552038</v>
+        <v>1304.71653848892</v>
       </c>
       <c r="M3" t="n">
-        <v>65.36624183552038</v>
+        <v>1304.71653848892</v>
       </c>
       <c r="N3" t="n">
-        <v>65.36624183552038</v>
+        <v>1304.71653848892</v>
       </c>
       <c r="O3" t="n">
-        <v>65.36624183552038</v>
+        <v>1304.71653848892</v>
       </c>
       <c r="P3" t="n">
-        <v>65.36624183552038</v>
+        <v>1304.71653848892</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1768.8620153517</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1850.881325436403</v>
       </c>
       <c r="S3" t="n">
-        <v>84.0649272658043</v>
+        <v>1769.557077997657</v>
       </c>
       <c r="T3" t="n">
-        <v>84.0649272658043</v>
+        <v>1627.677142295336</v>
       </c>
       <c r="U3" t="n">
-        <v>84.0649272658043</v>
+        <v>1442.908946214972</v>
       </c>
       <c r="V3" t="n">
-        <v>55.66461400032987</v>
+        <v>1237.935807354238</v>
       </c>
       <c r="W3" t="n">
-        <v>55.66461400032987</v>
+        <v>1041.414430187456</v>
       </c>
       <c r="X3" t="n">
-        <v>30.6496180761</v>
+        <v>877.9370839541186</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.6496180761</v>
+        <v>738.244195307411</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.249304810625575</v>
+        <v>1074.87941188838</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249304810625575</v>
+        <v>902.906848767296</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249304810625575</v>
+        <v>739.5900758940667</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249304810625575</v>
+        <v>573.3818700469202</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>401.5200958214806</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>235.2631261157127</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>91.46685762386713</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>42.193694855893</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>42.193694855893</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>268.7212960617302</v>
       </c>
       <c r="L4" t="n">
-        <v>2.249304810625575</v>
+        <v>623.410617356151</v>
       </c>
       <c r="M4" t="n">
-        <v>30.08445184211706</v>
+        <v>1014.596412326402</v>
       </c>
       <c r="N4" t="n">
-        <v>57.91959887360855</v>
+        <v>1392.087923202438</v>
       </c>
       <c r="O4" t="n">
-        <v>85.75474590510004</v>
+        <v>1747.516051882201</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>2038.115263804102</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2109.68474279465</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.646129481823</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.646129481823</v>
       </c>
       <c r="T4" t="n">
-        <v>84.0649272658043</v>
+        <v>2062.646129481823</v>
       </c>
       <c r="U4" t="n">
-        <v>84.0649272658043</v>
+        <v>1782.461680982128</v>
       </c>
       <c r="V4" t="n">
-        <v>84.0649272658043</v>
+        <v>1782.461680982128</v>
       </c>
       <c r="W4" t="n">
-        <v>59.04993134157444</v>
+        <v>1507.60927715464</v>
       </c>
       <c r="X4" t="n">
-        <v>30.6496180761</v>
+        <v>1265.045380600446</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.249304810625575</v>
+        <v>1265.045380600446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>658.485408704116</v>
+        <v>959.316532141587</v>
       </c>
       <c r="C5" t="n">
-        <v>362.6185191542725</v>
+        <v>532.4158021548872</v>
       </c>
       <c r="D5" t="n">
-        <v>66.75162960442901</v>
+        <v>513.1635853802915</v>
       </c>
       <c r="E5" t="n">
-        <v>44.81509379269062</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>23.73131602249492</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>23.4326576523476</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>23.4326576523476</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>23.4326576523476</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>23.4326576523476</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>23.4326576523476</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>301.6954672739754</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>301.6954672739754</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>301.6954672739754</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>591.674605721777</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>881.6537441695785</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1171.63288261738</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1171.63288261738</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>979.1367193016399</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>683.2698297517964</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X5" t="n">
-        <v>675.5902349599477</v>
+        <v>1380.461762437823</v>
       </c>
       <c r="Y5" t="n">
-        <v>674.293368955242</v>
+        <v>975.124492392713</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>420.1942210843476</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>302.6883176018524</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>302.6883176018524</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>264.5083529895298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>170.862522672434</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003801</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>23.4326576523476</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>23.4326576523476</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J6" t="n">
-        <v>295.1301469319387</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="K6" t="n">
-        <v>585.1092853797402</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="L6" t="n">
-        <v>585.1092853797402</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="M6" t="n">
-        <v>585.1092853797402</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="N6" t="n">
-        <v>585.1092853797402</v>
+        <v>1246.033289107808</v>
       </c>
       <c r="O6" t="n">
-        <v>875.0884238275418</v>
+        <v>1796.698824092246</v>
       </c>
       <c r="P6" t="n">
-        <v>875.0884238275418</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q6" t="n">
-        <v>1165.067562275343</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1090.308635178635</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1090.308635178635</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1090.308635178635</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>885.3354963179008</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>688.814119151118</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>688.814119151118</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>549.1212305044104</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.2146060784912</v>
+        <v>961.4711417263379</v>
       </c>
       <c r="C7" t="n">
-        <v>519.2146060784912</v>
+        <v>789.4985786052539</v>
       </c>
       <c r="D7" t="n">
-        <v>355.8978332052619</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E7" t="n">
-        <v>189.6896273581155</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>189.6896273581155</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>23.4326576523476</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>23.4326576523476</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>23.4326576523476</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>23.4326576523476</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>23.4326576523476</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>313.4117961001492</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>603.3909345479508</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>893.3700729957524</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1044.632752376618</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.632752376618</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>1171.63288261738</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1171.63288261738</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U7" t="n">
-        <v>891.4484341176844</v>
+        <v>1744.377781256054</v>
       </c>
       <c r="V7" t="n">
-        <v>609.7369667257133</v>
+        <v>1462.666313864083</v>
       </c>
       <c r="W7" t="n">
-        <v>609.7369667257133</v>
+        <v>1187.813910036596</v>
       </c>
       <c r="X7" t="n">
-        <v>519.2146060784912</v>
+        <v>1187.813910036596</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.2146060784912</v>
+        <v>961.4711417263379</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.3435071337996</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C8" t="n">
-        <v>99.48318118750379</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>815.1719019525203</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>1271.957808655251</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>1271.957808655251</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1271.957808655251</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.957808655251</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1271.957808655251</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1563.404006198875</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1305.049096795288</v>
+        <v>2155.613008721045</v>
       </c>
       <c r="V8" t="n">
-        <v>947.559681921537</v>
+        <v>1798.123593847295</v>
       </c>
       <c r="W8" t="n">
-        <v>551.1683322218839</v>
+        <v>1401.732244147642</v>
       </c>
       <c r="X8" t="n">
-        <v>543.4887374300353</v>
+        <v>990.012245315389</v>
       </c>
       <c r="Y8" t="n">
-        <v>138.1514673849256</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>772.8420314050604</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.627938107791</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1686.413844810522</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>305.7743982001963</v>
+        <v>717.9063049747683</v>
       </c>
       <c r="C10" t="n">
-        <v>305.7743982001963</v>
+        <v>545.9337418536843</v>
       </c>
       <c r="D10" t="n">
-        <v>305.7743982001963</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E10" t="n">
-        <v>305.7743982001963</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>305.7743982001963</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5174284944284</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>36.91199246082674</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>391.6013137552475</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>782.7871087254983</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1160.278619601534</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1515.706748281297</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1933.542809770745</v>
       </c>
       <c r="V10" t="n">
-        <v>823.1906985818782</v>
+        <v>1651.831342378774</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3382947543912</v>
+        <v>1376.978938551287</v>
       </c>
       <c r="X10" t="n">
-        <v>305.7743982001963</v>
+        <v>1134.415041997092</v>
       </c>
       <c r="Y10" t="n">
-        <v>305.7743982001963</v>
+        <v>908.072273686834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1918.410291042733</v>
+        <v>2536.911497639543</v>
       </c>
       <c r="C11" t="n">
-        <v>1526.406432312562</v>
+        <v>2110.010767652843</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.010682754091</v>
+        <v>1686.718146837843</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1260.741206985701</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878312</v>
+        <v>835.6170251751007</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338086</v>
+        <v>431.2779627645494</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437226</v>
+        <v>133.4095842385842</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437226</v>
+        <v>98.51271298205542</v>
       </c>
       <c r="J11" t="n">
-        <v>84.27338986437226</v>
+        <v>98.51271298205542</v>
       </c>
       <c r="K11" t="n">
-        <v>84.27338986437226</v>
+        <v>98.51271298205542</v>
       </c>
       <c r="L11" t="n">
-        <v>1013.898437483649</v>
+        <v>818.0327455021863</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.184538902707</v>
+        <v>1822.318846921245</v>
       </c>
       <c r="N11" t="n">
-        <v>2912.439363563617</v>
+        <v>2798.569905407945</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.58401371443</v>
+        <v>3643.714555558758</v>
       </c>
       <c r="P11" t="n">
-        <v>3757.58401371443</v>
+        <v>4351.993834716685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4213.669493218613</v>
+        <v>4808.079314220869</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218613</v>
+        <v>4925.635649102771</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348282</v>
+        <v>4821.268354975911</v>
       </c>
       <c r="T11" t="n">
-        <v>3958.170370649445</v>
+        <v>4600.342784020544</v>
       </c>
       <c r="U11" t="n">
-        <v>3734.712332502386</v>
+        <v>4527.69789538184</v>
       </c>
       <c r="V11" t="n">
-        <v>3412.119788885164</v>
+        <v>4170.208480508089</v>
       </c>
       <c r="W11" t="n">
-        <v>3050.625310442039</v>
+        <v>3773.817130808435</v>
       </c>
       <c r="X11" t="n">
-        <v>2673.802182866315</v>
+        <v>3362.097131976182</v>
       </c>
       <c r="Y11" t="n">
-        <v>2303.361784077734</v>
+        <v>2956.759861931073</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>665.6362040135107</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>548.1303005310155</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>444.2903420463005</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>339.5884083192377</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>245.9425780021418</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020627</v>
+        <v>151.8888062197458</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437226</v>
+        <v>98.51271298205542</v>
       </c>
       <c r="I12" t="n">
-        <v>84.27338986437226</v>
+        <v>105.9593559439673</v>
       </c>
       <c r="J12" t="n">
-        <v>84.27338986437226</v>
+        <v>377.6568452235583</v>
       </c>
       <c r="K12" t="n">
-        <v>630.5985164589015</v>
+        <v>968.1417717918979</v>
       </c>
       <c r="L12" t="n">
-        <v>630.5985164589015</v>
+        <v>968.1417717918979</v>
       </c>
       <c r="M12" t="n">
-        <v>630.5985164589015</v>
+        <v>968.1417717918979</v>
       </c>
       <c r="N12" t="n">
-        <v>630.5985164589015</v>
+        <v>968.1417717918979</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5985164589015</v>
+        <v>1361.035556615083</v>
       </c>
       <c r="P12" t="n">
-        <v>1346.796233497399</v>
+        <v>1361.035556615083</v>
       </c>
       <c r="Q12" t="n">
-        <v>1810.941710360179</v>
+        <v>1825.181033477862</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1907.200343562565</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1825.87609612382</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1683.996160421498</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1499.227964341135</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1294.254825480401</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1097.733448313618</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>934.256102080281</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>794.5632134335734</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.0436848709869</v>
+        <v>1009.832061280853</v>
       </c>
       <c r="C13" t="n">
-        <v>758.9679930064318</v>
+        <v>837.8594981597688</v>
       </c>
       <c r="D13" t="n">
-        <v>630.5480913897313</v>
+        <v>674.5427252865394</v>
       </c>
       <c r="E13" t="n">
-        <v>526.369485521034</v>
+        <v>508.3345194393929</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4045825521233</v>
+        <v>508.3345194393929</v>
       </c>
       <c r="G13" t="n">
-        <v>258.0444841028842</v>
+        <v>342.0775497336251</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675675</v>
+        <v>198.2812812417795</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437226</v>
+        <v>98.51271298205542</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070542</v>
+        <v>156.0040412062134</v>
       </c>
       <c r="K13" t="n">
-        <v>436.6971663314152</v>
+        <v>382.5316424120506</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443599</v>
+        <v>737.2209637064714</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633135</v>
+        <v>1128.406758676722</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1505.898269552758</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1861.326398232521</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2151.925610154422</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2278.925740395184</v>
       </c>
       <c r="R13" t="n">
-        <v>2526.164063369394</v>
+        <v>2231.887127082357</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.925887145058</v>
+        <v>2061.752079601492</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.483410627487</v>
+        <v>2061.752079601492</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.195833384319</v>
+        <v>2061.752079601492</v>
       </c>
       <c r="V13" t="n">
-        <v>1690.381237248877</v>
+        <v>1780.040612209521</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.425704677919</v>
+        <v>1668.904694857371</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.758679380253</v>
+        <v>1426.340798303177</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.312782326524</v>
+        <v>1199.998029992919</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1918.410291042733</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>1526.406432312562</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1138.010682754091</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E14" t="n">
-        <v>746.9306141584773</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>356.7033036044063</v>
+        <v>839.4070255988745</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883231</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623577</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437226</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>799.7816978398713</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1729.406745459148</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>2733.692846878206</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>2912.439363563617</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.58401371443</v>
+        <v>3833.214576747415</v>
       </c>
       <c r="P14" t="n">
-        <v>3757.58401371443</v>
+        <v>4541.493855905343</v>
       </c>
       <c r="Q14" t="n">
-        <v>4213.669493218613</v>
+        <v>4997.579335409526</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T14" t="n">
-        <v>3958.170370649445</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U14" t="n">
-        <v>3734.712332502385</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V14" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W14" t="n">
-        <v>3050.625310442039</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X14" t="n">
-        <v>2673.802182866315</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.361784077734</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020627</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I15" t="n">
-        <v>91.7200328262841</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473315</v>
       </c>
       <c r="K15" t="n">
-        <v>953.9024486742147</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="L15" t="n">
-        <v>953.9024486742147</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="M15" t="n">
-        <v>953.9024486742147</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="N15" t="n">
-        <v>953.9024486742147</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="O15" t="n">
-        <v>953.9024486742147</v>
+        <v>971.9317722156711</v>
       </c>
       <c r="P15" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.1764135929077</v>
+        <v>612.345256599499</v>
       </c>
       <c r="C16" t="n">
-        <v>786.1007217283525</v>
+        <v>440.3726934784148</v>
       </c>
       <c r="D16" t="n">
-        <v>657.680820111652</v>
+        <v>440.3726934784147</v>
       </c>
       <c r="E16" t="n">
-        <v>526.3694855210343</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="F16" t="n">
-        <v>389.4045825521235</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G16" t="n">
-        <v>258.0444841028845</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675677</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J16" t="n">
-        <v>175.9671416070542</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.195833384319</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V16" t="n">
-        <v>1717.513965970798</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W16" t="n">
-        <v>1477.55843339984</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X16" t="n">
-        <v>1269.891408102174</v>
+        <v>1028.853993621823</v>
       </c>
       <c r="Y16" t="n">
-        <v>1078.445511048445</v>
+        <v>802.5112253115647</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2141.868329189791</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>1749.86447045962</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1361.468720901149</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>970.3886523055359</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>580.161341751465</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>210.7191505974439</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437226</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>446.8768486812678</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2392.2737845811</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3368.524843067801</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4213.669493218613</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.669493218613</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>4213.669493218613</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649445</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>3958.170370649445</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3635.577827032223</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3274.083348589098</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>2897.260221013374</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2526.819822224793</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020627</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>84.27338986437226</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>84.27338986437226</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>84.27338986437226</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>84.27338986437226</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M18" t="n">
-        <v>1003.47974243341</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.47974243341</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.0436848709862</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>758.9679930064312</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>630.5480913897309</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>499.2367567991132</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>362.2718538302024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>230.9117553809635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>122.0123581456469</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437226</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.9671416070542</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443599</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666405</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425691</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369393</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627486</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248876</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677918</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380252</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326523</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2015.422568456721</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>1623.41870972655</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
-        <v>1235.022960168079</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>843.9428915724658</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>453.7155810183948</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>84.27338986437222</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437222</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>84.27338986437222</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>799.7816978398713</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1729.406745459148</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>1729.406745459148</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2086.603749523786</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>2931.748399674598</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>3640.027678832525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4096.113158336709</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218611</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4213.669493218611</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4055.182648063432</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
-        <v>3831.724609916373</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3509.132066299151</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3147.637587856027</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>2770.814460280303</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2400.374061491722</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958274</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133322</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286172</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015544</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844586</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>84.27338986437222</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>355.9708791439633</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>946.4558057123029</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>1783.254613795209</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1783.254613795209</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1783.254613795209</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1783.254613795209</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1783.254613795209</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625978</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158901</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>908.1854269272845</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C22" t="n">
-        <v>771.1097350627293</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D22" t="n">
-        <v>642.6898334460288</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E22" t="n">
-        <v>511.3784988554114</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F22" t="n">
-        <v>374.4135958865008</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675674</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437222</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070539</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314149</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443596</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666405</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2403.067629201355</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2194.625152683784</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1949.337575440617</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1702.522979305175</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1462.567446734216</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1254.90042143655</v>
+        <v>838.736788768378</v>
       </c>
       <c r="Y22" t="n">
-        <v>1063.454524382821</v>
+        <v>612.3940204581201</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385137</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844908</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>1169.731764507449</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>2099.356812126726</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M23" t="n">
-        <v>3103.642913545784</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3735.855235601908</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4580.99988575272</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4580.99988575272</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4580.99988575272</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>91.6199977150544</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>363.3174869946455</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>953.8024135629851</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>953.8024135629851</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>953.8024135629851</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>953.8024135629851</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>953.8024135629851</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
-        <v>1436.162151432785</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>930.5230214435899</v>
+        <v>373.4203922683192</v>
       </c>
       <c r="C25" t="n">
-        <v>793.4473295790344</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>665.0274279623339</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>533.7160933717163</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>396.7511904028055</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>265.3910919535664</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820974</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9355189950421</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2410.414237052038</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2216.962747200089</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1971.675169956922</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1724.86057382148</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1484.905041250522</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.238015952856</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1085.792118899127</v>
+        <v>563.5863609803848</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6212,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6300,31 +6300,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1408.985357012666</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1873.130833875445</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>446.1370507523524</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>274.1644876312683</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>274.1644876312682</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6382,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6412,7 +6412,7 @@
         <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>1941.958004048025</v>
       </c>
       <c r="U28" t="n">
         <v>1661.773555548329</v>
@@ -6421,13 +6421,13 @@
         <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1105.209684328871</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>862.645787774676</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>636.303019464418</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
         <v>464.9061722227241</v>
@@ -6473,22 +6473,22 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596603</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747415</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905343</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409526</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291428</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
         <v>4789.8428052092</v>
@@ -6528,40 +6528,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
         <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058286</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058286</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>563.5863609803852</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>391.6137978593011</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>391.613797859301</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>391.613797859301</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058286</v>
+        <v>219.7520236338614</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548328</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>789.9291292906431</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>563.5863609803852</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181376</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>91.29483210793288</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>806.8031400834319</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1736.428187702709</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2740.714289121767</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3716.965347608468</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4562.10999775928</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>4564.741605396644</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q32" t="n">
-        <v>4564.741605396644</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151237</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077324</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555191</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984471</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1435.836985825663</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1899.982462688443</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619906</v>
+        <v>933.239179759886</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223606</v>
+        <v>797.3015675202563</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305855</v>
+        <v>670.0197455284813</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648933</v>
+        <v>539.846490562789</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209079</v>
+        <v>404.0196672188035</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965942</v>
+        <v>273.7976483944898</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862027</v>
+        <v>166.0363307840984</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>195.1118969888998</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>456.9573535536503</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090885</v>
+        <v>846.9645302069843</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1273.468180536148</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1686.277546771097</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>2077.023530809774</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2402.940598090588</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2565.258583690263</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2554.25492125889</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2420.154824659479</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>2212.850427766833</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1968.700930148591</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1723.024413638075</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1484.206960692042</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>1277.678015019301</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>1087.370197590498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2425.378764544831</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>2034.512985439585</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181375</v>
+        <v>1647.25531550604</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210687</v>
+        <v>1257.313326535351</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815412</v>
+        <v>832.1891447247514</v>
       </c>
       <c r="G35" t="n">
-        <v>353.1282597524439</v>
+        <v>427.8500823142</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793288</v>
+        <v>129.9817037882348</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793288</v>
+        <v>95.08483253170601</v>
       </c>
       <c r="J35" t="n">
-        <v>453.8982909248284</v>
+        <v>457.6882913486015</v>
       </c>
       <c r="K35" t="n">
-        <v>1169.406598900327</v>
+        <v>1173.196599324101</v>
       </c>
       <c r="L35" t="n">
-        <v>2099.031646519604</v>
+        <v>2102.821646943377</v>
       </c>
       <c r="M35" t="n">
-        <v>2099.031646519604</v>
+        <v>3107.107748362436</v>
       </c>
       <c r="N35" t="n">
-        <v>2437.675861701818</v>
+        <v>3909.096976434489</v>
       </c>
       <c r="O35" t="n">
-        <v>3282.82051185263</v>
+        <v>4754.241626585301</v>
       </c>
       <c r="P35" t="n">
-        <v>3991.099791010558</v>
+        <v>4754.241626585301</v>
       </c>
       <c r="Q35" t="n">
-        <v>4447.185270514741</v>
+        <v>4754.241626585301</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396644</v>
+        <v>4754.241626585301</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151238</v>
+        <v>4685.909283339895</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077325</v>
+        <v>4501.018663265982</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555192</v>
+        <v>4278.698704743849</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562895</v>
+        <v>3957.244240751552</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744696</v>
+        <v>3596.887841933353</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793898</v>
+        <v>3214.529448000016</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2809.192177954907</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>658.4183231393881</v>
+        <v>662.2083235631612</v>
       </c>
       <c r="C36" t="n">
-        <v>540.9124196568929</v>
+        <v>544.702420080666</v>
       </c>
       <c r="D36" t="n">
-        <v>437.0724611721779</v>
+        <v>440.8624615959511</v>
       </c>
       <c r="E36" t="n">
-        <v>332.3705274451151</v>
+        <v>336.1605278688883</v>
       </c>
       <c r="F36" t="n">
-        <v>238.7246971280193</v>
+        <v>242.5146975517924</v>
       </c>
       <c r="G36" t="n">
-        <v>144.6709253456233</v>
+        <v>148.4609257693964</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793288</v>
+        <v>95.08483253170601</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793288</v>
+        <v>102.5314754936178</v>
       </c>
       <c r="J36" t="n">
-        <v>362.9923213875239</v>
+        <v>374.2289647732089</v>
       </c>
       <c r="K36" t="n">
-        <v>953.4772479558635</v>
+        <v>964.7138913415486</v>
       </c>
       <c r="L36" t="n">
-        <v>953.4772479558635</v>
+        <v>964.7138913415486</v>
       </c>
       <c r="M36" t="n">
-        <v>953.4772479558635</v>
+        <v>964.7138913415486</v>
       </c>
       <c r="N36" t="n">
-        <v>953.4772479558635</v>
+        <v>964.7138913415486</v>
       </c>
       <c r="O36" t="n">
-        <v>953.4772479558635</v>
+        <v>964.7138913415486</v>
       </c>
       <c r="P36" t="n">
-        <v>1353.81767574096</v>
+        <v>1357.607676164733</v>
       </c>
       <c r="Q36" t="n">
-        <v>1817.963152603739</v>
+        <v>1821.753153027513</v>
       </c>
       <c r="R36" t="n">
-        <v>1899.982462688443</v>
+        <v>1903.772463112216</v>
       </c>
       <c r="S36" t="n">
-        <v>1818.658215249697</v>
+        <v>1822.44821567347</v>
       </c>
       <c r="T36" t="n">
-        <v>1676.778279547375</v>
+        <v>1680.568279971149</v>
       </c>
       <c r="U36" t="n">
-        <v>1492.010083467012</v>
+        <v>1495.800083890785</v>
       </c>
       <c r="V36" t="n">
-        <v>1287.036944606278</v>
+        <v>1290.826945030051</v>
       </c>
       <c r="W36" t="n">
-        <v>1090.515567439495</v>
+        <v>1094.305567863269</v>
       </c>
       <c r="X36" t="n">
-        <v>927.0382212061585</v>
+        <v>930.8282216299316</v>
       </c>
       <c r="Y36" t="n">
-        <v>787.3453325594509</v>
+        <v>791.135332983224</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619909</v>
+        <v>926.0212988857638</v>
       </c>
       <c r="C37" t="n">
-        <v>786.293686222361</v>
+        <v>790.083686646134</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305858</v>
+        <v>662.8018646543588</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648932</v>
+        <v>532.6286096886665</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209076</v>
+        <v>396.8017863446813</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>266.5797675203675</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862026</v>
+        <v>158.8184499099761</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793288</v>
+        <v>95.08483253170601</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910041</v>
+        <v>187.8940161147775</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557545</v>
+        <v>449.7394726795278</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>839.7466493328618</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1266.250299662026</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473201</v>
+        <v>1679.059665896975</v>
       </c>
       <c r="O37" t="n">
-        <v>2066.015649511878</v>
+        <v>2069.805649935651</v>
       </c>
       <c r="P37" t="n">
-        <v>2391.932716792692</v>
+        <v>2395.722717216465</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392367</v>
+        <v>2558.04070281614</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960995</v>
+        <v>2547.037040384767</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361584</v>
+        <v>2412.936943785357</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.842546468938</v>
+        <v>2205.632546892711</v>
       </c>
       <c r="U37" t="n">
-        <v>1957.693048850696</v>
+        <v>1961.483049274469</v>
       </c>
       <c r="V37" t="n">
-        <v>1712.01653234018</v>
+        <v>1715.806532763952</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394147</v>
+        <v>1476.98907981792</v>
       </c>
       <c r="X37" t="n">
-        <v>1266.670133721406</v>
+        <v>1270.460134145179</v>
       </c>
       <c r="Y37" t="n">
-        <v>1076.362316292602</v>
+        <v>1080.152316716375</v>
       </c>
     </row>
     <row r="38">
@@ -7172,25 +7172,25 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J38" t="n">
-        <v>453.8982909248284</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K38" t="n">
-        <v>453.8982909248284</v>
+        <v>806.8031400834319</v>
       </c>
       <c r="L38" t="n">
-        <v>1383.523338544105</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="M38" t="n">
-        <v>2387.809439963164</v>
+        <v>1736.428187702709</v>
       </c>
       <c r="N38" t="n">
-        <v>3364.060498449865</v>
+        <v>2712.679246189409</v>
       </c>
       <c r="O38" t="n">
-        <v>4209.205148600677</v>
+        <v>3557.823896340221</v>
       </c>
       <c r="P38" t="n">
-        <v>4564.741605396644</v>
+        <v>4266.103175498149</v>
       </c>
       <c r="Q38" t="n">
         <v>4564.741605396644</v>
@@ -7257,19 +7257,19 @@
         <v>960.9238909177753</v>
       </c>
       <c r="L39" t="n">
-        <v>960.9238909177753</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="M39" t="n">
-        <v>960.9238909177753</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="N39" t="n">
-        <v>960.9238909177753</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="O39" t="n">
-        <v>960.9238909177753</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="P39" t="n">
-        <v>1353.81767574096</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="Q39" t="n">
         <v>1817.963152603739</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619906</v>
+        <v>922.2312984619905</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223606</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305855</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G40" t="n">
         <v>262.7897670965942</v>
@@ -7330,13 +7330,13 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910044</v>
       </c>
       <c r="K40" t="n">
         <v>445.9494722557547</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090889</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238253</v>
@@ -7348,16 +7348,16 @@
         <v>2066.015649511878</v>
       </c>
       <c r="P40" t="n">
-        <v>2391.932716792693</v>
+        <v>2391.932716792692</v>
       </c>
       <c r="Q40" t="n">
-        <v>2554.250702392368</v>
+        <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960995</v>
+        <v>2543.247039960994</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361584</v>
+        <v>2409.146943361583</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7366,7 +7366,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.01653234018</v>
+        <v>1712.016532340179</v>
       </c>
       <c r="W40" t="n">
         <v>1473.199079394147</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220168</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.721261114922</v>
       </c>
       <c r="D41" t="n">
-        <v>1500.463591181376</v>
+        <v>1500.463591181377</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.521602210687</v>
+        <v>1110.521602210688</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815428</v>
       </c>
       <c r="G41" t="n">
-        <v>353.1282597524439</v>
+        <v>353.1282597524456</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793461</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.2948321079329</v>
       </c>
       <c r="J41" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>91.29483210793288</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>1020.919879727209</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>2025.205981146268</v>
+        <v>3103.317747938662</v>
       </c>
       <c r="N41" t="n">
-        <v>3001.457039632969</v>
+        <v>3719.596955245833</v>
       </c>
       <c r="O41" t="n">
-        <v>3846.601689783781</v>
+        <v>4564.741605396645</v>
       </c>
       <c r="P41" t="n">
-        <v>3991.099791010558</v>
+        <v>4564.741605396645</v>
       </c>
       <c r="Q41" t="n">
-        <v>4447.185270514741</v>
+        <v>4564.741605396645</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396645</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.40926215124</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077326</v>
+        <v>4311.518642077327</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555193</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562897</v>
       </c>
       <c r="W41" t="n">
-        <v>3407.387820744697</v>
+        <v>3407.387820744698</v>
       </c>
       <c r="X41" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793899</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630244</v>
       </c>
     </row>
     <row r="42">
@@ -7470,10 +7470,10 @@
         <v>540.9124196568929</v>
       </c>
       <c r="D42" t="n">
-        <v>437.0724611721779</v>
+        <v>437.072461172178</v>
       </c>
       <c r="E42" t="n">
-        <v>332.3705274451151</v>
+        <v>332.3705274451152</v>
       </c>
       <c r="F42" t="n">
         <v>238.7246971280193</v>
@@ -7482,31 +7482,31 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793288</v>
+        <v>91.2948321079329</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984474</v>
       </c>
       <c r="J42" t="n">
         <v>370.4389643494358</v>
       </c>
       <c r="K42" t="n">
-        <v>960.9238909177753</v>
+        <v>960.9238909177755</v>
       </c>
       <c r="L42" t="n">
-        <v>960.9238909177753</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="M42" t="n">
-        <v>960.9238909177753</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="N42" t="n">
-        <v>960.9238909177753</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="O42" t="n">
-        <v>960.9238909177753</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="P42" t="n">
-        <v>1353.81767574096</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="Q42" t="n">
         <v>1817.963152603739</v>
@@ -7561,25 +7561,25 @@
         <v>262.7897670965942</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793288</v>
+        <v>91.2948321079329</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910041</v>
+        <v>184.1040156910044</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557545</v>
+        <v>445.9494722557547</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090889</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
         <v>2066.015649511878</v>
@@ -7591,10 +7591,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R43" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S43" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T43" t="n">
         <v>2201.842546468938</v>
@@ -7603,7 +7603,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V43" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W43" t="n">
         <v>1473.199079394147</v>
@@ -7649,13 +7649,13 @@
         <v>453.8982909248284</v>
       </c>
       <c r="K44" t="n">
-        <v>1169.406598900327</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="L44" t="n">
-        <v>2099.031646519604</v>
+        <v>1383.523338544105</v>
       </c>
       <c r="M44" t="n">
-        <v>2099.031646519604</v>
+        <v>1461.424803215119</v>
       </c>
       <c r="N44" t="n">
         <v>2437.67586170182</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>66.42835256544261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>125.1097511702281</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>564.8121450546867</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>564.9965475088939</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>62.01294749699718</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>488.2898778230794</v>
       </c>
       <c r="L3" t="n">
-        <v>50.63139684704925</v>
+        <v>549.9362724128921</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8076,10 +8076,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>42.20547431349048</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>50.69175002430551</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>96.91196578554081</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>319.3855875049743</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
-        <v>330.2991800103691</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>330.4835824645763</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.0328952589431</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8289,13 +8289,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>315.3074544876783</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,19 +8304,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>316.0801103765672</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>454.3086476393042</v>
       </c>
       <c r="Q6" t="n">
-        <v>315.6552589433235</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>30.30455610327221</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>314.8269805500462</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>315.4836605458308</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.6571216299454</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2897727316222</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,28 +8453,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>455.6196014764236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8544,13 +8544,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>99.71676862514317</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>372.4370567591071</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8626,7 +8626,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>227.322966839075</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
         <v>152.9025226039384</v>
@@ -8693,25 +8693,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>765.0999540691188</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>940.5673245121333</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>574.2427960500296</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8781,10 +8781,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8936,19 +8936,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>217.831659890417</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>891.0724241548241</v>
+        <v>500.1648957193119</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>418.6332501171365</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9170,22 +9170,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>340.7278086621149</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,25 +9237,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>951.5880457335786</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9264,7 +9264,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9410,7 +9410,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>398.0846774451911</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9483,7 +9483,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9495,13 +9495,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.5615904603654</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N23" t="n">
-        <v>675.8779279416419</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>295.0530226965566</v>
@@ -9732,13 +9732,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>509.0028996591719</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,16 +9875,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9948,19 +9948,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9969,13 +9969,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>61.91484879908644</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>924.1790155406107</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10185,22 +10185,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>153.2864345924293</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10212,7 +10212,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10364,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>40.23355134292143</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>501.4810380814832</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>379.3444866548641</v>
+        <v>847.369752200156</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10680,7 +10680,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>426.1551116948253</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,10 +10838,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>396.7030959475716</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>337.7796543000475</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10905,10 +10905,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167935</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10917,10 +10917,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>106.5207073584907</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
@@ -11069,19 +11069,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>659.7838726396693</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>183.5330398170769</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,10 +11142,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167935</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11154,10 +11154,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11297,16 +11297,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>116.1196110519711</v>
       </c>
       <c r="N44" t="n">
-        <v>379.3444866548659</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>356.383946836591</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>183.8529205572343</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>26.86140143470118</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>162.0793216105841</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>356.3839468365901</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-4.689582056016661e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>236.535615687867</v>
       </c>
       <c r="V16" t="n">
-        <v>26.86140143470185</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>135.1604890710011</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-8.313350008393172e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>26.86140143470158</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162746</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>27.26643599822211</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.84107679896602</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573506</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>48.31958288295721</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>71.98949189919168</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573506</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>14.84107679896636</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.98949189919212</v>
+        <v>71.98949189919183</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>48.31958288295712</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.98949189919212</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>962418.5296328828</v>
+        <v>969357.6433068186</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>966245.4414063595</v>
+        <v>969653.0654551403</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>968680.5717401945</v>
+        <v>969653.0654551403</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>925699.5392304275</v>
+        <v>917145.7400884595</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>925699.5392304276</v>
+        <v>941666.2785747722</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>925699.5392304276</v>
+        <v>941666.2785747722</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>925699.5392304272</v>
+        <v>941666.2785747718</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>973230.6105771573</v>
+        <v>941666.2785747721</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941666.2785747721</v>
+        <v>941666.2785747718</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>974262.2949039206</v>
+        <v>975346.5156164032</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>974262.2949039206</v>
+        <v>974635.5908042459</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58244.26680111632</v>
+        <v>58244.2668011163</v>
       </c>
       <c r="C2" t="n">
-        <v>58244.26680111633</v>
+        <v>58244.2668011163</v>
       </c>
       <c r="D2" t="n">
-        <v>58244.26680111632</v>
+        <v>58244.2668011163</v>
       </c>
       <c r="E2" t="n">
-        <v>55342.98322085377</v>
+        <v>54739.57106610915</v>
       </c>
       <c r="F2" t="n">
-        <v>55342.98322085378</v>
+        <v>56203.04031374473</v>
       </c>
       <c r="G2" t="n">
-        <v>55342.98322085376</v>
+        <v>56203.04031374475</v>
       </c>
       <c r="H2" t="n">
-        <v>55342.98322085376</v>
+        <v>56203.04031374474</v>
       </c>
       <c r="I2" t="n">
-        <v>58179.79943767303</v>
+        <v>56203.04031374473</v>
       </c>
       <c r="J2" t="n">
+        <v>56203.04031374472</v>
+      </c>
+      <c r="K2" t="n">
         <v>56203.04031374474</v>
-      </c>
-      <c r="K2" t="n">
-        <v>56203.04031374473</v>
       </c>
       <c r="L2" t="n">
         <v>58244.26680111628</v>
       </c>
       <c r="M2" t="n">
+        <v>58244.26680111633</v>
+      </c>
+      <c r="N2" t="n">
+        <v>58244.26680111628</v>
+      </c>
+      <c r="O2" t="n">
         <v>58244.26680111629</v>
       </c>
-      <c r="N2" t="n">
-        <v>58244.2668011163</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>58244.26680111625</v>
-      </c>
-      <c r="P2" t="n">
-        <v>58244.26680111626</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>176750.9700148929</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943981</v>
+        <v>9306.576880934512</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447342</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596185</v>
+        <v>201594.2222250239</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>13574.17076777532</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826568</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085283</v>
+        <v>137996.5887109409</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710405</v>
+        <v>7413.90408504086</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370013</v>
+        <v>28539.68109811172</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819145</v>
+        <v>145773.7708181578</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302344.3278278755</v>
+        <v>154427.7351984401</v>
       </c>
       <c r="C4" t="n">
-        <v>220768.5277437282</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>48146.06368811535</v>
+        <v>14720.48000358254</v>
       </c>
       <c r="F4" t="n">
-        <v>48146.06368811536</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="G4" t="n">
-        <v>48146.06368811535</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>48146.06368811535</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>48913.08368348022</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.1736579274</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
+        <v>26854.89537209553</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42009.21921967999</v>
+      </c>
+      <c r="N4" t="n">
         <v>49966.52619190444</v>
       </c>
-      <c r="M4" t="n">
-        <v>49966.52619190444</v>
-      </c>
-      <c r="N4" t="n">
-        <v>49966.52619190443</v>
-      </c>
       <c r="O4" t="n">
-        <v>49966.52619190444</v>
+        <v>49966.52619190436</v>
       </c>
       <c r="P4" t="n">
         <v>49966.52619190444</v>
@@ -26467,46 +26467,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>65694.80809047868</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578417</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589138</v>
+        <v>74869.66186636212</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589138</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589135</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.60588240981</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>80749.19025122613</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482542</v>
+        <v>75263.60078689302</v>
       </c>
       <c r="N5" t="n">
         <v>72383.20046482542</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482545</v>
       </c>
       <c r="P5" t="n">
         <v>72383.20046482545</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-288859.5548834755</v>
+        <v>-338629.2465026954</v>
       </c>
       <c r="C6" t="n">
-        <v>-299507.1849378359</v>
+        <v>-166638.9736862605</v>
       </c>
       <c r="D6" t="n">
-        <v>-224635.4509469064</v>
+        <v>-157332.396805326</v>
       </c>
       <c r="E6" t="n">
-        <v>-264156.9778427715</v>
+        <v>-236532.4104222346</v>
       </c>
       <c r="F6" t="n">
-        <v>-59755.26438315296</v>
+        <v>-50288.39696257201</v>
       </c>
       <c r="G6" t="n">
-        <v>-59755.26438315296</v>
+        <v>-36714.22619479666</v>
       </c>
       <c r="H6" t="n">
-        <v>-59755.26438315282</v>
+        <v>-36714.22619479668</v>
       </c>
       <c r="I6" t="n">
-        <v>-87689.1064564827</v>
+        <v>-36714.22619479668</v>
       </c>
       <c r="J6" t="n">
-        <v>-78958.01518346519</v>
+        <v>-174710.8149057375</v>
       </c>
       <c r="K6" t="n">
-        <v>-104812.1599597164</v>
+        <v>-44128.13027983753</v>
       </c>
       <c r="L6" t="n">
-        <v>-100463.9239593137</v>
+        <v>-77899.4999203171</v>
       </c>
       <c r="M6" t="n">
-        <v>-211638.580837528</v>
+        <v>-204802.3240236145</v>
       </c>
       <c r="N6" t="n">
-        <v>-64105.45985561355</v>
+        <v>-64105.45985561359</v>
       </c>
       <c r="O6" t="n">
-        <v>-64105.4598556136</v>
+        <v>-64105.45985561352</v>
       </c>
       <c r="P6" t="n">
-        <v>-64105.45985561363</v>
+        <v>-64105.45985561364</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M2" t="n">
         <v>35.67460137263963</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>527.4211856986625</v>
       </c>
       <c r="C4" t="n">
-        <v>292.908220654345</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1231.408912275693</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
         <v>1278.783917572857</v>
@@ -26817,10 +26817,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1141.185401349161</v>
+        <v>1188.560406646325</v>
       </c>
       <c r="N4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>527.4211856986625</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215253</v>
+        <v>28.80662741693163</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059892</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443191</v>
+        <v>675.1810991600986</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>47.37500529716436</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.8325981335272</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674964</v>
+        <v>527.4211856986625</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215258</v>
+        <v>28.80662741693163</v>
       </c>
       <c r="L4" t="n">
-        <v>30.89316888229303</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443191</v>
+        <v>584.957588233567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>527.4211856986625</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215253</v>
+        <v>28.80662741693163</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059892</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443191</v>
+        <v>675.1810991600986</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>47.37500529716436</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27430,19 +27430,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>90.69983518445537</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72602217249382</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.39469483153834</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>137.0777268060162</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>49.9904514368324</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>212.7896441635393</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>247.3390338242245</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>212.0219474558332</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.9630304943357</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>129.7235020324878</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>126.1514739525047</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>378.9070755048271</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>163.3433190424302</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>99.51921554831154</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>65.85674942359279</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>42.56042181679956</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>150.5211205479031</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>42.66627575736734</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.166099005634</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>40.77892413366148</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>35.49607292968292</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.54790254396352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263963</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="35">
@@ -29995,16 +29995,16 @@
         <v>35.67460137263963</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30049,10 +30049,10 @@
         <v>35.67460137263963</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263963</v>
+        <v>29.06798884992651</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30478,7 +30478,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396178</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263947</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="Q43" t="n">
         <v>35.67460137263963</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>87.83012833578204</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.4211856986625</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>527.4211856986625</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.11631013281968</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>26.98029760220071</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>465.8906439897461</v>
       </c>
       <c r="L3" t="n">
-        <v>28.11631013281968</v>
+        <v>527.4211856986625</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,10 +34796,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>19.45843602451199</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>28.11631013281968</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>26.98029760220071</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>72.29240302075587</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>281.0735450723514</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
-        <v>292.908220654345</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>292.908220654345</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>292.908220654345</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,13 +35009,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>292.908220654345</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,19 +35024,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>292.908220654345</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>432.5378064344755</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.908220654345</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.631636709128065</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>292.908220654345</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>292.908220654345</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.908220654345</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>152.7905852331977</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,28 +35173,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>77.9459274203145</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>349.6900184701286</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35346,7 +35346,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9421661810885</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
         <v>128.2829598391535</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>726.7879116364959</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>903.2877016776872</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>551.8435622166962</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35656,19 +35656,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>180.552037055971</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>853.6814647988001</v>
+        <v>462.7739363632878</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>396.8624089123078</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,22 +35890,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>303.296545762683</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>928.4912652212506</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>360.8050546107451</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
@@ -36203,7 +36203,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.8145521713869</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N23" t="n">
-        <v>638.5983051071959</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>274.4419083632233</v>
@@ -36452,13 +36452,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>487.2320584543432</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523424</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>38.24192940494229</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>886.8993927061647</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>130.1896540801013</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37084,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>2.658189532690133</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>479.7101968766545</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391035</v>
+        <v>93.74665008391037</v>
       </c>
       <c r="K34" t="n">
         <v>264.4903601664146</v>
@@ -37312,22 +37312,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>342.0648638204181</v>
+        <v>810.0901293657099</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>404.3842704899966</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,10 +37558,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>359.1277341373403</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>301.6549796954494</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>20.44490262935137</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>82.84778796434657</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.72252784426691e-12</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
@@ -37789,19 +37789,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>622.5042498052233</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>145.9576780068456</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>20.44490262935137</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37874,10 +37874,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -37953,7 +37953,7 @@
         <v>394.6929131703801</v>
       </c>
       <c r="P43" t="n">
-        <v>329.2091588695092</v>
+        <v>329.2091588695093</v>
       </c>
       <c r="Q43" t="n">
         <v>163.9575612117931</v>
@@ -38017,16 +38017,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>78.68834815253925</v>
       </c>
       <c r="N44" t="n">
-        <v>342.0648638204199</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
